--- a/biology/Botanique/Anthonome_d'hiver_du_poirier/Anthonome_d'hiver_du_poirier.xlsx
+++ b/biology/Botanique/Anthonome_d'hiver_du_poirier/Anthonome_d'hiver_du_poirier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anthonome_d%27hiver_du_poirier</t>
+          <t>Anthonome_d'hiver_du_poirier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anthonomus piri
 L'anthonome d'hiver du poirier (Anthonomus piri) est une espèce d’insectes coléoptères de la famille des Curculionidae originaire d'Asie centrale et de Turquie. En Europe, il réside principalement dans les régions situées au sud de la Loire.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anthonome_d%27hiver_du_poirier</t>
+          <t>Anthonome_d'hiver_du_poirier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Avec l'arrivée tardive de l'hiver, en décembre, ces insectes se reproduisent dans l'écorce de l'arbre, ce qui produit une explosion des naissances au sein même de l'arbre, ce qui l'épuise.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Anthonome_d%27hiver_du_poirier</t>
+          <t>Anthonome_d'hiver_du_poirier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La seule parade efficace est de râper le plus gros de l'écorce du tronc et des branches charpentières (sans blesser l'arbre) puis de badigeonner copieusement de blanc de chaux (chaux vive éteinte dans l'eau puis filtrée que l'on trouve en jardinerie) afin d'éliminer les ravageurs. Recommencer tous les ans pour protéger l'arbre devenu fragile sans écorce.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Anthonome_d%27hiver_du_poirier</t>
+          <t>Anthonome_d'hiver_du_poirier</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Synonymie :
 Anthonomus cinctus L. Redtenbacher, 1858
